--- a/po_analysis_by_asin/B08LG2JC4B_po_data.xlsx
+++ b/po_analysis_by_asin/B08LG2JC4B_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>16</v>
